--- a/pedigree-node-affected-status.xlsx
+++ b/pedigree-node-affected-status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="74">
   <si>
     <t>Path</t>
   </si>
@@ -233,6 +233,10 @@
   </si>
   <si>
     <t>closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>valueCoding</t>
@@ -841,7 +845,7 @@
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>37</v>
@@ -1041,7 +1045,7 @@
         <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>63</v>
@@ -1052,7 +1056,7 @@
         <v>64</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1107,11 +1111,11 @@
         <v>37</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>37</v>
@@ -1141,7 +1145,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>63</v>
